--- a/RTND/TestNetwork/CreateSamllNetwork.xlsx
+++ b/RTND/TestNetwork/CreateSamllNetwork.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50461CBD-6F1C-4172-850F-3A2197F0C6BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF06DE-7FC5-43B4-9A43-A3DCFBDD8181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllLinks" sheetId="2" r:id="rId1"/>
@@ -17,17 +17,22 @@
     <sheet name="CompeteSectionRemark" sheetId="8" r:id="rId7"/>
     <sheet name="DestNodeSet" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>f^1</t>
   </si>
@@ -199,6 +204,21 @@
   </si>
   <si>
     <t>fare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check the initial input for the  6link network data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.00,  3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.00,  4.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.00,  8.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.00,  6.00</t>
   </si>
 </sst>
 </file>
@@ -311,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -325,6 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -854,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A3:S32"/>
+  <dimension ref="A3:X40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -874,7 +895,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -885,7 +906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -896,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -904,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>4</v>
       </c>
@@ -912,7 +933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -920,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>6</v>
       </c>
@@ -928,7 +949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>7</v>
       </c>
@@ -936,49 +957,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="X16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
       <c r="J20" t="s">
         <v>52</v>
       </c>
@@ -986,7 +1024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>42</v>
@@ -1016,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1130,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1176,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1216,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1256,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1296,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1356,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
@@ -1334,7 +1372,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
@@ -1350,13 +1388,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
+    </row>
+    <row r="40" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>12/60</f>
+        <v>0.2</v>
+      </c>
+      <c r="O40">
+        <f>N40*4</f>
+        <v>0.8</v>
+      </c>
+      <c r="P40">
+        <f>(1+4/144)</f>
+        <v>1.0277777777777777</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1370,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,6 +1640,18 @@
       <c r="L23">
         <v>26.72</v>
       </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A1:C2369">
@@ -1987,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G35:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
